--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,94 +40,100 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>love</t>
   </si>
   <si>
     <t>social</t>
+  </si>
+  <si>
+    <t>documentary</t>
   </si>
   <si>
     <t>positive</t>
@@ -496,10 +502,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,10 +566,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -607,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -678,16 +684,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.86</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -699,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9326923076923077</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +763,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9242424242424242</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -775,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7">
         <v>0.7192982456140351</v>
@@ -807,13 +813,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -825,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.5466666666666666</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -849,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -857,13 +863,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.775</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -875,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.5333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -899,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -907,13 +913,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -925,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -949,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -957,13 +963,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6842105263157895</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -975,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.4482758620689655</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -999,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1007,13 +1013,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6470588235294118</v>
+        <v>0.625</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1028,16 +1034,16 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.1525423728813559</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1049,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1057,13 +1063,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.525</v>
+        <v>0.55</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1075,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.06284153005464481</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="L13">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1099,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1029</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1107,13 +1113,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1125,7 +1131,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14">
+        <v>0.03180212014134275</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1133,7 +1163,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1151,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1159,13 +1189,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4042553191489361</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1177,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1185,13 +1215,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3928571428571428</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1203,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1211,13 +1241,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.391304347826087</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1229,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1237,13 +1267,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3142857142857143</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1255,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1263,7 +1293,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.282051282051282</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C20">
         <v>11</v>
@@ -1281,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1289,13 +1319,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1282051282051282</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1307,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
